--- a/Develop/Excel/Datas/__tables__.xlsx
+++ b/Develop/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="9975" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
